--- a/LOCAL_SOURCES/SRC_EX1.xlsx
+++ b/LOCAL_SOURCES/SRC_EX1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\DEV\GIT\010_AntAI\LOCAL_SOURCES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E800055-968C-4F3E-ABF0-2E7FF8CDBEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B978FAF5-5010-4BFB-B017-D74F09F61EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38790" yWindow="3120" windowWidth="21600" windowHeight="15195" activeTab="1" xr2:uid="{32554E90-0A00-4DDA-ADEB-290997543BC1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{32554E90-0A00-4DDA-ADEB-290997543BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="SRC_EXAMPLE_FULLDETAILS" sheetId="11" r:id="rId1"/>
@@ -651,8 +651,8 @@
   <sheetPr codeName="Tabelle11"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164D716C-D96C-4197-9067-10FEC2290474}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f ca="1">_xlfn.CONCAT(B2:G2)</f>
+        <f t="shared" ref="A2:A11" ca="1" si="0">_xlfn.CONCAT(B2:G2)</f>
         <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;10115Berlin</v>
       </c>
       <c r="B2" t="s">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f ca="1">_xlfn.CONCAT(B4:G4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;30159Hannover</v>
       </c>
       <c r="B4" t="s">
@@ -1195,7 +1195,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f ca="1">_xlfn.CONCAT(B5:G5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;40213Düsseldorf</v>
       </c>
       <c r="B5" t="s">
@@ -1222,7 +1222,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f ca="1">_xlfn.CONCAT(B6:G6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;50667Köln</v>
       </c>
       <c r="B6" t="s">
@@ -1249,7 +1249,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f ca="1">_xlfn.CONCAT(B7:G7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;60311Frankfurt am Main</v>
       </c>
       <c r="B7" t="s">
@@ -1270,7 +1270,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f ca="1">_xlfn.CONCAT(B8:G8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;70173Stuttgart</v>
       </c>
       <c r="B8" t="s">
@@ -1291,7 +1291,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f ca="1">_xlfn.CONCAT(B9:G9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;80331München</v>
       </c>
       <c r="B9" t="s">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f ca="1">_xlfn.CONCAT(B10:G10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;90402Nürnberg</v>
       </c>
       <c r="B10" t="s">
@@ -1333,7 +1333,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f ca="1">_xlfn.CONCAT(B11:G11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
       </c>
       <c r="B11" t="s">
@@ -1354,8 +1354,8 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f t="shared" ref="A12:A21" ca="1" si="0">_xlfn.CONCAT(B12:G12)</f>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f t="shared" ref="A12:A21" ca="1" si="1">_xlfn.CONCAT(B12:G12)</f>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;10001New York</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -1375,8 +1375,8 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;33101Miami</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -1396,8 +1396,8 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;60601Chicago</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -1417,8 +1417,8 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;75201Dallas</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -1438,8 +1438,8 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f ca="1">_xlfn.CONCAT(B16:G16)</f>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;90210Beverly Hills</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1459,8 +1459,8 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;94102San Francisco</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1480,8 +1480,8 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;98101Seattle</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -1501,8 +1501,8 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;30303Atlanta</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -1522,8 +1522,8 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;20001Washington D.C.</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
@@ -1543,8 +1543,8 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Postal CodeGermanyExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;99084Erfurt</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Postal CodeUSExample Postal Code for a &lt;B&gt; mapping solution with Headlines &lt;/b&gt;90015Los Angeles</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -1732,6 +1732,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE722083F2A25D4392EE06058483FC0B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2635c84cf28abf109e4a63ad270ea0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3f4c8009-b4bb-4066-a620-04dd32484973" xmlns:ns4="10da5715-5bdb-48d7-b4ac-ac79d3961ccf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6963a590176d61c364fc6c71a9790032" ns3:_="" ns4:_="">
     <xsd:import namespace="3f4c8009-b4bb-4066-a620-04dd32484973"/>
@@ -1902,36 +1917,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95FDAC06-07B0-4D96-AD7F-E2449B9C7B61}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{406E50AD-0C1B-46F9-8ACE-C6D020C96D6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3f4c8009-b4bb-4066-a620-04dd32484973"/>
-    <ds:schemaRef ds:uri="10da5715-5bdb-48d7-b4ac-ac79d3961ccf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1954,9 +1943,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{406E50AD-0C1B-46F9-8ACE-C6D020C96D6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95FDAC06-07B0-4D96-AD7F-E2449B9C7B61}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3f4c8009-b4bb-4066-a620-04dd32484973"/>
+    <ds:schemaRef ds:uri="10da5715-5bdb-48d7-b4ac-ac79d3961ccf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>